--- a/data/data_log.xlsx
+++ b/data/data_log.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -51,13 +54,37 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -466,13 +493,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>南京市</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2006</v>
+      <c r="B2" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C2" t="n">
         <v>4.189654742026425</v>
@@ -488,13 +515,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2007</v>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C3" t="n">
         <v>3.951243718581428</v>
@@ -510,13 +533,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2008</v>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C4" t="n">
         <v>5.241747015059643</v>
@@ -532,13 +551,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2009</v>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C5" t="n">
         <v>4.499809670330265</v>
@@ -554,13 +569,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2010</v>
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C6" t="n">
         <v>4.955827057601261</v>
@@ -576,13 +587,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2011</v>
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C7" t="n">
         <v>4.691347882229143</v>
@@ -598,13 +605,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2012</v>
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C8" t="n">
         <v>4.574710978503383</v>
@@ -620,13 +623,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2013</v>
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C9" t="n">
         <v>4.890349128221754</v>
@@ -642,13 +641,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2014</v>
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C10" t="n">
         <v>4.890349128221754</v>
@@ -664,13 +659,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2015</v>
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C11" t="n">
         <v>4.852030263919617</v>
@@ -686,13 +677,9 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2016</v>
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C12" t="n">
         <v>4.584967478670572</v>
@@ -708,13 +695,9 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2017</v>
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C13" t="n">
         <v>5.61312810638807</v>
@@ -730,13 +713,9 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2018</v>
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C14" t="n">
         <v>5.283203728737988</v>
@@ -752,13 +731,9 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2019</v>
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C15" t="n">
         <v>5.153291594497779</v>
@@ -774,13 +749,9 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2020</v>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C16" t="n">
         <v>5.488937726156687</v>
@@ -796,13 +767,9 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2021</v>
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C17" t="n">
         <v>5.616771097666572</v>
@@ -818,13 +785,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2022</v>
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C18" t="n">
         <v>5.713732805509369</v>
@@ -840,13 +803,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>无锡市</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2006</v>
+      <c r="B19" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C19" t="n">
         <v>2.94443897916644</v>
@@ -862,13 +825,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2007</v>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C20" t="n">
         <v>3.044522437723423</v>
@@ -884,13 +843,9 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2008</v>
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C21" t="n">
         <v>4.644390899141372</v>
@@ -906,13 +861,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2009</v>
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C22" t="n">
         <v>4.04305126783455</v>
@@ -928,13 +879,9 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2010</v>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C23" t="n">
         <v>3.912023005428146</v>
@@ -950,13 +897,9 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2011</v>
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C24" t="n">
         <v>3.784189633918261</v>
@@ -972,13 +915,9 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2012</v>
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C25" t="n">
         <v>3.931825632724326</v>
@@ -994,13 +933,9 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2013</v>
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C26" t="n">
         <v>3.988984046564275</v>
@@ -1016,13 +951,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2014</v>
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C27" t="n">
         <v>3.737669618283368</v>
@@ -1038,13 +969,9 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2015</v>
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C28" t="n">
         <v>3.80666248977032</v>
@@ -1060,13 +987,9 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2016</v>
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C29" t="n">
         <v>3.737669618283368</v>
@@ -1082,13 +1005,9 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2017</v>
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C30" t="n">
         <v>4.700480365792417</v>
@@ -1104,13 +1023,9 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2018</v>
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C31" t="n">
         <v>4.442651256490317</v>
@@ -1126,13 +1041,9 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2019</v>
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C32" t="n">
         <v>4.290459441148391</v>
@@ -1148,13 +1059,9 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2020</v>
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C33" t="n">
         <v>4.59511985013459</v>
@@ -1170,13 +1077,9 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2021</v>
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C34" t="n">
         <v>4.624972813284271</v>
@@ -1192,13 +1095,9 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2022</v>
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C35" t="n">
         <v>4.976733742420574</v>
@@ -1214,13 +1113,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>徐州市</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2006</v>
+      <c r="B36" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C36" t="n">
         <v>0.6931471805599453</v>
@@ -1236,13 +1135,9 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2007</v>
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C37" t="n">
         <v>0.6931471805599453</v>
@@ -1258,13 +1153,9 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2008</v>
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C38" t="n">
         <v>2.484906649788</v>
@@ -1280,13 +1171,9 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2009</v>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C39" t="n">
         <v>2.772588722239781</v>
@@ -1302,13 +1189,9 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2010</v>
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C40" t="n">
         <v>2.94443897916644</v>
@@ -1324,13 +1207,9 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2011</v>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C41" t="n">
         <v>1.791759469228055</v>
@@ -1346,13 +1225,9 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2012</v>
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C42" t="n">
         <v>2.19722457733622</v>
@@ -1368,13 +1243,9 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2013</v>
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C43" t="n">
         <v>2.302585092994046</v>
@@ -1390,13 +1261,9 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2014</v>
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C44" t="n">
         <v>2.70805020110221</v>
@@ -1412,13 +1279,9 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2015</v>
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C45" t="n">
         <v>2.70805020110221</v>
@@ -1434,13 +1297,9 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2016</v>
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C46" t="n">
         <v>2.890371757896165</v>
@@ -1456,13 +1315,9 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2017</v>
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C47" t="n">
         <v>3.367295829986474</v>
@@ -1478,13 +1333,9 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2018</v>
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C48" t="n">
         <v>3.091042453358316</v>
@@ -1500,13 +1351,9 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2019</v>
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C49" t="n">
         <v>2.70805020110221</v>
@@ -1522,13 +1369,9 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2020</v>
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C50" t="n">
         <v>3.332204510175204</v>
@@ -1544,13 +1387,9 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2021</v>
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C51" t="n">
         <v>3.912023005428146</v>
@@ -1566,13 +1405,9 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>徐州市</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2022</v>
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C52" t="n">
         <v>3.761200115693562</v>
@@ -1588,13 +1423,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>常州市</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>2006</v>
+      <c r="B53" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C53" t="n">
         <v>2.995732273553991</v>
@@ -1610,13 +1445,9 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2007</v>
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C54" t="n">
         <v>3.401197381662155</v>
@@ -1632,13 +1463,9 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2008</v>
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C55" t="n">
         <v>4.700480365792417</v>
@@ -1654,13 +1481,9 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2009</v>
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C56" t="n">
         <v>4.382026634673881</v>
@@ -1676,13 +1499,9 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2010</v>
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C57" t="n">
         <v>4.110873864173311</v>
@@ -1698,13 +1517,9 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2011</v>
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C58" t="n">
         <v>3.688879454113936</v>
@@ -1720,13 +1535,9 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2012</v>
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C59" t="n">
         <v>3.258096538021482</v>
@@ -1742,13 +1553,9 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2013</v>
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C60" t="n">
         <v>3.610917912644224</v>
@@ -1764,13 +1571,9 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2014</v>
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C61" t="n">
         <v>3.737669618283368</v>
@@ -1786,13 +1589,9 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2015</v>
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C62" t="n">
         <v>4.204692619390966</v>
@@ -1808,13 +1607,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2016</v>
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C63" t="n">
         <v>3.178053830347946</v>
@@ -1830,13 +1625,9 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2017</v>
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C64" t="n">
         <v>4.564348191467836</v>
@@ -1852,13 +1643,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2018</v>
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C65" t="n">
         <v>3.970291913552122</v>
@@ -1874,13 +1661,9 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2019</v>
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C66" t="n">
         <v>4.31748811353631</v>
@@ -1896,13 +1679,9 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2020</v>
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C67" t="n">
         <v>4.406719247264253</v>
@@ -1918,13 +1697,9 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2021</v>
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C68" t="n">
         <v>4.644390899141372</v>
@@ -1940,13 +1715,9 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2022</v>
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C69" t="n">
         <v>4.653960350157523</v>
@@ -1962,13 +1733,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>苏州市</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>2006</v>
+      <c r="B70" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C70" t="n">
         <v>2.833213344056216</v>
@@ -1984,13 +1755,9 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2007</v>
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C71" t="n">
         <v>3.737669618283368</v>
@@ -2006,13 +1773,9 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2008</v>
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C72" t="n">
         <v>4.30406509320417</v>
@@ -2028,13 +1791,9 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2009</v>
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C73" t="n">
         <v>4.454347296253507</v>
@@ -2050,13 +1809,9 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2010</v>
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C74" t="n">
         <v>3.891820298110626</v>
@@ -2072,13 +1827,9 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2011</v>
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C75" t="n">
         <v>3.610917912644224</v>
@@ -2094,13 +1845,9 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2012</v>
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C76" t="n">
         <v>4.060443010546419</v>
@@ -2116,13 +1863,9 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2013</v>
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C77" t="n">
         <v>4.143134726391533</v>
@@ -2138,13 +1881,9 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2014</v>
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C78" t="n">
         <v>4.02535169073515</v>
@@ -2160,13 +1899,9 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2015</v>
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C79" t="n">
         <v>4.430816798843313</v>
@@ -2182,13 +1917,9 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>2016</v>
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C80" t="n">
         <v>4.276666119016055</v>
@@ -2204,13 +1935,9 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2017</v>
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C81" t="n">
         <v>5.424950017481403</v>
@@ -2226,13 +1953,9 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2018</v>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C82" t="n">
         <v>5.017279836814924</v>
@@ -2248,13 +1971,9 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2019</v>
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C83" t="n">
         <v>5.135798437050262</v>
@@ -2270,13 +1989,9 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>2020</v>
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C84" t="n">
         <v>5.03695260241363</v>
@@ -2292,13 +2007,9 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>2021</v>
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C85" t="n">
         <v>5.46383180502561</v>
@@ -2314,13 +2025,9 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>苏州市</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2022</v>
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C86" t="n">
         <v>5.648974238161206</v>
@@ -2336,13 +2043,13 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>南通市</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>2006</v>
+      <c r="B87" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C87" t="n">
         <v>1.6094379124341</v>
@@ -2358,13 +2065,9 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>2007</v>
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C88" t="n">
         <v>1.09861228866811</v>
@@ -2380,13 +2083,9 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>2008</v>
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C89" t="n">
         <v>2.833213344056216</v>
@@ -2402,13 +2101,9 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>2009</v>
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C90" t="n">
         <v>3.178053830347946</v>
@@ -2424,13 +2119,9 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2010</v>
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C91" t="n">
         <v>2.19722457733622</v>
@@ -2446,13 +2137,9 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2011</v>
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C92" t="n">
         <v>2.19722457733622</v>
@@ -2468,13 +2155,9 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>2012</v>
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C93" t="n">
         <v>2.564949357461537</v>
@@ -2490,13 +2173,9 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2013</v>
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C94" t="n">
         <v>3.091042453358316</v>
@@ -2512,13 +2191,9 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>2014</v>
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C95" t="n">
         <v>2.833213344056216</v>
@@ -2534,13 +2209,9 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>2015</v>
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C96" t="n">
         <v>2.833213344056216</v>
@@ -2556,13 +2227,9 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>2016</v>
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C97" t="n">
         <v>2.484906649788</v>
@@ -2578,13 +2245,9 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2017</v>
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C98" t="n">
         <v>3.526360524616162</v>
@@ -2600,13 +2263,9 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2018</v>
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C99" t="n">
         <v>3.610917912644224</v>
@@ -2622,13 +2281,9 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>2019</v>
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C100" t="n">
         <v>3.465735902799727</v>
@@ -2644,13 +2299,9 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2020</v>
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C101" t="n">
         <v>3.218875824868201</v>
@@ -2666,13 +2317,9 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2021</v>
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C102" t="n">
         <v>3.433987204485146</v>
@@ -2688,13 +2335,9 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>南通市</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>2022</v>
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C103" t="n">
         <v>3.713572066704308</v>
@@ -2710,13 +2353,13 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>连云港市</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>2006</v>
+      <c r="B104" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -2732,13 +2375,9 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2007</v>
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C105" t="n">
         <v>1.386294361119891</v>
@@ -2754,13 +2393,9 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2008</v>
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C106" t="n">
         <v>1.791759469228055</v>
@@ -2776,13 +2411,9 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>2009</v>
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C107" t="n">
         <v>1.791759469228055</v>
@@ -2798,13 +2429,9 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2010</v>
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C108" t="n">
         <v>1.09861228866811</v>
@@ -2820,13 +2447,9 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>2011</v>
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C109" t="n">
         <v>0.6931471805599453</v>
@@ -2842,13 +2465,9 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2012</v>
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C110" t="n">
         <v>0.6931471805599453</v>
@@ -2864,13 +2483,9 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2013</v>
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C111" t="n">
         <v>1.386294361119891</v>
@@ -2886,13 +2501,9 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2014</v>
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C112" t="n">
         <v>1.09861228866811</v>
@@ -2908,13 +2519,9 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2015</v>
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C113" t="n">
         <v>0.6931471805599453</v>
@@ -2930,13 +2537,9 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2016</v>
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C114" t="n">
         <v>0.6931471805599453</v>
@@ -2952,13 +2555,9 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2017</v>
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C115" t="n">
         <v>1.6094379124341</v>
@@ -2974,13 +2573,9 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2018</v>
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C116" t="n">
         <v>2.833213344056216</v>
@@ -2996,13 +2591,9 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>2019</v>
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C117" t="n">
         <v>2.079441541679836</v>
@@ -3018,13 +2609,9 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2020</v>
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C118" t="n">
         <v>2.079441541679836</v>
@@ -3040,13 +2627,9 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2021</v>
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C119" t="n">
         <v>2.772588722239781</v>
@@ -3062,13 +2645,9 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2022</v>
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C120" t="n">
         <v>2.397895272798371</v>
@@ -3084,13 +2663,13 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="inlineStr">
         <is>
           <t>淮安市</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>2006</v>
+      <c r="B121" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3106,13 +2685,9 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2007</v>
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3128,13 +2703,9 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2008</v>
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C123" t="n">
         <v>0.6931471805599453</v>
@@ -3150,13 +2721,9 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2009</v>
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C124" t="n">
         <v>0.6931471805599453</v>
@@ -3172,13 +2739,9 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2010</v>
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C125" t="n">
         <v>0.6931471805599453</v>
@@ -3194,13 +2757,9 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2011</v>
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3216,13 +2775,9 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2012</v>
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C127" t="n">
         <v>1.09861228866811</v>
@@ -3238,13 +2793,9 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>2013</v>
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C128" t="n">
         <v>0.6931471805599453</v>
@@ -3260,13 +2811,9 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2014</v>
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C129" t="n">
         <v>0.6931471805599453</v>
@@ -3282,13 +2829,9 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>2015</v>
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C130" t="n">
         <v>1.09861228866811</v>
@@ -3304,13 +2847,9 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>2016</v>
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C131" t="n">
         <v>1.09861228866811</v>
@@ -3326,13 +2865,9 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>2017</v>
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C132" t="n">
         <v>1.791759469228055</v>
@@ -3348,13 +2883,9 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>2018</v>
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C133" t="n">
         <v>1.386294361119891</v>
@@ -3370,13 +2901,9 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2019</v>
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C134" t="n">
         <v>2.079441541679836</v>
@@ -3392,13 +2919,9 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>2020</v>
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C135" t="n">
         <v>1.09861228866811</v>
@@ -3414,13 +2937,9 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>2021</v>
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C136" t="n">
         <v>1.6094379124341</v>
@@ -3436,13 +2955,9 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>淮安市</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>2022</v>
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C137" t="n">
         <v>1.386294361119891</v>
@@ -3458,13 +2973,13 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="inlineStr">
         <is>
           <t>盐城市</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>2006</v>
+      <c r="B138" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C138" t="n">
         <v>1.6094379124341</v>
@@ -3480,13 +2995,9 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>2007</v>
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C139" t="n">
         <v>1.09861228866811</v>
@@ -3502,13 +3013,9 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>2008</v>
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C140" t="n">
         <v>1.386294361119891</v>
@@ -3524,13 +3031,9 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>2009</v>
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C141" t="n">
         <v>1.6094379124341</v>
@@ -3546,13 +3049,9 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>2010</v>
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C142" t="n">
         <v>0.6931471805599453</v>
@@ -3568,13 +3067,9 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>2011</v>
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C143" t="n">
         <v>1.386294361119891</v>
@@ -3590,13 +3085,9 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>2012</v>
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -3612,13 +3103,9 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>2013</v>
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C145" t="n">
         <v>0.6931471805599453</v>
@@ -3634,13 +3121,9 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>2014</v>
+      <c r="A146" s="1" t="n"/>
+      <c r="B146" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C146" t="n">
         <v>1.6094379124341</v>
@@ -3656,13 +3139,9 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>2015</v>
+      <c r="A147" s="1" t="n"/>
+      <c r="B147" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C147" t="n">
         <v>1.6094379124341</v>
@@ -3678,13 +3157,9 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>2016</v>
+      <c r="A148" s="1" t="n"/>
+      <c r="B148" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C148" t="n">
         <v>1.09861228866811</v>
@@ -3700,13 +3175,9 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>2017</v>
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C149" t="n">
         <v>1.791759469228055</v>
@@ -3722,13 +3193,9 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>2018</v>
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C150" t="n">
         <v>1.791759469228055</v>
@@ -3744,13 +3211,9 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>2019</v>
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C151" t="n">
         <v>1.945910149055313</v>
@@ -3766,13 +3229,9 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>2020</v>
+      <c r="A152" s="1" t="n"/>
+      <c r="B152" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C152" t="n">
         <v>2.302585092994046</v>
@@ -3788,13 +3247,9 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>2021</v>
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C153" t="n">
         <v>2.639057329615258</v>
@@ -3810,13 +3265,9 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>盐城市</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>2022</v>
+      <c r="A154" s="1" t="n"/>
+      <c r="B154" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C154" t="n">
         <v>1.791759469228055</v>
@@ -3832,13 +3283,13 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="1" t="inlineStr">
         <is>
           <t>扬州市</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>2006</v>
+      <c r="B155" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C155" t="n">
         <v>2.079441541679836</v>
@@ -3854,13 +3305,9 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>2007</v>
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C156" t="n">
         <v>2.079441541679836</v>
@@ -3876,13 +3323,9 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>2008</v>
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C157" t="n">
         <v>2.772588722239781</v>
@@ -3898,13 +3341,9 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>2009</v>
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C158" t="n">
         <v>2.484906649788</v>
@@ -3920,13 +3359,9 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>2010</v>
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C159" t="n">
         <v>2.079441541679836</v>
@@ -3942,13 +3377,9 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>2011</v>
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C160" t="n">
         <v>2.19722457733622</v>
@@ -3964,13 +3395,9 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>2012</v>
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C161" t="n">
         <v>2.833213344056216</v>
@@ -3986,13 +3413,9 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>2013</v>
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C162" t="n">
         <v>2.484906649788</v>
@@ -4008,13 +3431,9 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>2014</v>
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C163" t="n">
         <v>2.639057329615258</v>
@@ -4030,13 +3449,9 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>2015</v>
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C164" t="n">
         <v>2.302585092994046</v>
@@ -4052,13 +3467,9 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>2016</v>
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C165" t="n">
         <v>2.772588722239781</v>
@@ -4074,13 +3485,9 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>2017</v>
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C166" t="n">
         <v>3.218875824868201</v>
@@ -4096,13 +3503,9 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>2018</v>
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C167" t="n">
         <v>3.433987204485146</v>
@@ -4118,13 +3521,9 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>2019</v>
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C168" t="n">
         <v>2.772588722239781</v>
@@ -4140,13 +3539,9 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>2020</v>
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C169" t="n">
         <v>3.13549421592915</v>
@@ -4162,13 +3557,9 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>2021</v>
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C170" t="n">
         <v>3.332204510175204</v>
@@ -4184,13 +3575,9 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>扬州市</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>2022</v>
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C171" t="n">
         <v>3.737669618283368</v>
@@ -4206,13 +3593,13 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="1" t="inlineStr">
         <is>
           <t>镇江市</t>
         </is>
       </c>
-      <c r="B172" t="n">
-        <v>2006</v>
+      <c r="B172" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C172" t="n">
         <v>2.079441541679836</v>
@@ -4228,13 +3615,9 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>2007</v>
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C173" t="n">
         <v>2.079441541679836</v>
@@ -4250,13 +3633,9 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>2008</v>
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C174" t="n">
         <v>3.332204510175204</v>
@@ -4272,13 +3651,9 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>2009</v>
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C175" t="n">
         <v>3.218875824868201</v>
@@ -4294,13 +3669,9 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>2010</v>
+      <c r="A176" s="1" t="n"/>
+      <c r="B176" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C176" t="n">
         <v>2.19722457733622</v>
@@ -4316,13 +3687,9 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2011</v>
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C177" t="n">
         <v>2.484906649788</v>
@@ -4338,13 +3705,9 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>2012</v>
+      <c r="A178" s="1" t="n"/>
+      <c r="B178" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C178" t="n">
         <v>2.19722457733622</v>
@@ -4360,13 +3723,9 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2013</v>
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C179" t="n">
         <v>1.791759469228055</v>
@@ -4382,13 +3741,9 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>2014</v>
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C180" t="n">
         <v>1.09861228866811</v>
@@ -4404,13 +3759,9 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2015</v>
+      <c r="A181" s="1" t="n"/>
+      <c r="B181" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C181" t="n">
         <v>2.19722457733622</v>
@@ -4426,13 +3777,9 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>2016</v>
+      <c r="A182" s="1" t="n"/>
+      <c r="B182" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C182" t="n">
         <v>1.791759469228055</v>
@@ -4448,13 +3795,9 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>2017</v>
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C183" t="n">
         <v>2.890371757896165</v>
@@ -4470,13 +3813,9 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>2018</v>
+      <c r="A184" s="1" t="n"/>
+      <c r="B184" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C184" t="n">
         <v>2.397895272798371</v>
@@ -4492,13 +3831,9 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>2019</v>
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C185" t="n">
         <v>2.397895272798371</v>
@@ -4514,13 +3849,9 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>2020</v>
+      <c r="A186" s="1" t="n"/>
+      <c r="B186" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C186" t="n">
         <v>1.6094379124341</v>
@@ -4536,13 +3867,9 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>2021</v>
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C187" t="n">
         <v>2.890371757896165</v>
@@ -4558,13 +3885,9 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>2022</v>
+      <c r="A188" s="1" t="n"/>
+      <c r="B188" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C188" t="n">
         <v>2.484906649788</v>
@@ -4580,13 +3903,13 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="1" t="inlineStr">
         <is>
           <t>泰州市</t>
         </is>
       </c>
-      <c r="B189" t="n">
-        <v>2006</v>
+      <c r="B189" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C189" t="n">
         <v>1.09861228866811</v>
@@ -4602,13 +3925,9 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2007</v>
+      <c r="A190" s="1" t="n"/>
+      <c r="B190" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C190" t="n">
         <v>0.6931471805599453</v>
@@ -4624,13 +3943,9 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>2008</v>
+      <c r="A191" s="1" t="n"/>
+      <c r="B191" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C191" t="n">
         <v>1.386294361119891</v>
@@ -4646,13 +3961,9 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>2009</v>
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C192" t="n">
         <v>1.791759469228055</v>
@@ -4668,13 +3979,9 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2010</v>
+      <c r="A193" s="1" t="n"/>
+      <c r="B193" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C193" t="n">
         <v>0.6931471805599453</v>
@@ -4690,13 +3997,9 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2011</v>
+      <c r="A194" s="1" t="n"/>
+      <c r="B194" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C194" t="n">
         <v>0.6931471805599453</v>
@@ -4712,13 +4015,9 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2012</v>
+      <c r="A195" s="1" t="n"/>
+      <c r="B195" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -4734,13 +4033,9 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>2013</v>
+      <c r="A196" s="1" t="n"/>
+      <c r="B196" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C196" t="n">
         <v>2.302585092994046</v>
@@ -4756,13 +4051,9 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>2014</v>
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C197" t="n">
         <v>1.945910149055313</v>
@@ -4778,13 +4069,9 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2015</v>
+      <c r="A198" s="1" t="n"/>
+      <c r="B198" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C198" t="n">
         <v>2.19722457733622</v>
@@ -4800,13 +4087,9 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>2016</v>
+      <c r="A199" s="1" t="n"/>
+      <c r="B199" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C199" t="n">
         <v>1.791759469228055</v>
@@ -4822,13 +4105,9 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>2017</v>
+      <c r="A200" s="1" t="n"/>
+      <c r="B200" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C200" t="n">
         <v>1.791759469228055</v>
@@ -4844,13 +4123,9 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>2018</v>
+      <c r="A201" s="1" t="n"/>
+      <c r="B201" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C201" t="n">
         <v>2.564949357461537</v>
@@ -4866,13 +4141,9 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>2019</v>
+      <c r="A202" s="1" t="n"/>
+      <c r="B202" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C202" t="n">
         <v>1.945910149055313</v>
@@ -4888,13 +4159,9 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>2020</v>
+      <c r="A203" s="1" t="n"/>
+      <c r="B203" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C203" t="n">
         <v>2.639057329615258</v>
@@ -4910,13 +4177,9 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>2021</v>
+      <c r="A204" s="1" t="n"/>
+      <c r="B204" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C204" t="n">
         <v>3.367295829986474</v>
@@ -4932,13 +4195,9 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>2022</v>
+      <c r="A205" s="1" t="n"/>
+      <c r="B205" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C205" t="n">
         <v>3.465735902799727</v>
@@ -4954,13 +4213,13 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="1" t="inlineStr">
         <is>
           <t>宿迁市</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>2006</v>
+      <c r="B206" s="2" t="n">
+        <v>39082</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -4976,13 +4235,9 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>2007</v>
+      <c r="A207" s="1" t="n"/>
+      <c r="B207" s="2" t="n">
+        <v>39447</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -4998,13 +4253,9 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>2008</v>
+      <c r="A208" s="1" t="n"/>
+      <c r="B208" s="2" t="n">
+        <v>39813</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5020,13 +4271,9 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>2009</v>
+      <c r="A209" s="1" t="n"/>
+      <c r="B209" s="2" t="n">
+        <v>40178</v>
       </c>
       <c r="C209" t="n">
         <v>0.6931471805599453</v>
@@ -5042,13 +4289,9 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2010</v>
+      <c r="A210" s="1" t="n"/>
+      <c r="B210" s="2" t="n">
+        <v>40543</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5064,13 +4307,9 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>2011</v>
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="2" t="n">
+        <v>40908</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5086,13 +4325,9 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>2012</v>
+      <c r="A212" s="1" t="n"/>
+      <c r="B212" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5108,13 +4343,9 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>2013</v>
+      <c r="A213" s="1" t="n"/>
+      <c r="B213" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="C213" t="n">
         <v>1.09861228866811</v>
@@ -5130,13 +4361,9 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>2014</v>
+      <c r="A214" s="1" t="n"/>
+      <c r="B214" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -5152,13 +4379,9 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>2015</v>
+      <c r="A215" s="1" t="n"/>
+      <c r="B215" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="C215" t="n">
         <v>0.6931471805599453</v>
@@ -5174,13 +4397,9 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2016</v>
+      <c r="A216" s="1" t="n"/>
+      <c r="B216" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="C216" t="n">
         <v>0.6931471805599453</v>
@@ -5196,13 +4415,9 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2017</v>
+      <c r="A217" s="1" t="n"/>
+      <c r="B217" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="C217" t="n">
         <v>1.09861228866811</v>
@@ -5218,13 +4433,9 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>2018</v>
+      <c r="A218" s="1" t="n"/>
+      <c r="B218" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="C218" t="n">
         <v>1.09861228866811</v>
@@ -5240,13 +4451,9 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>2019</v>
+      <c r="A219" s="1" t="n"/>
+      <c r="B219" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -5262,13 +4469,9 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>2020</v>
+      <c r="A220" s="1" t="n"/>
+      <c r="B220" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="C220" t="n">
         <v>1.09861228866811</v>
@@ -5284,13 +4487,9 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>2021</v>
+      <c r="A221" s="1" t="n"/>
+      <c r="B221" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="C221" t="n">
         <v>1.386294361119891</v>
@@ -5306,13 +4505,9 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>2022</v>
+      <c r="A222" s="1" t="n"/>
+      <c r="B222" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -5328,6 +4523,21 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="A206:A222"/>
+    <mergeCell ref="A53:A69"/>
+    <mergeCell ref="A87:A103"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A104:A120"/>
+    <mergeCell ref="A121:A137"/>
+    <mergeCell ref="A189:A205"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A155:A171"/>
+    <mergeCell ref="A36:A52"/>
+    <mergeCell ref="A172:A188"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>